--- a/biology/Mycologie/Macrophomina_phaseolina/Macrophomina_phaseolina.xlsx
+++ b/biology/Mycologie/Macrophomina_phaseolina/Macrophomina_phaseolina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Macrophomina phaseolina est une espèce de champignons ascomycètes phytopathogènes qui provoquent des symptômes de pourriture charbonneuse sur les racines ou les tiges chez de nombreuses espèces de plantes, dont le maïs (Zea mays).
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Botryodiplodia phaseoli (Maubl.) Thirum., (1953)
 Dothiorella cajani (Syd., P. Syd. &amp; E.J. Butler) Syd., P. Syd. &amp; E.J. Butler, (1925)
@@ -557,9 +571,11 @@
           <t>Plantes hôtes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Macrophomina phaseolina parasite plusieurs centaines d'espèces de plantes hôtes. Parmi les principales plantes cultivées concernées figurent l'arachide (Arachis hypogaea), le soja (Glycine Max), la luzerne (Medicago sativa), le pois chiche (Cicer arietinum), les haricots (Phaseolus spp.), le niébé (Vigna unguiculata), la betterave (Beta vulgaris), le chou (Brassica oleracea), le piment (Capsicum annuum), la pomme de terre (Solanum tuberosum), les agrumes (Citrus spp.), le coton (Gossypium sp.), le tournesol (Helianthus annuus), la patate douce (Ipomoea batatas), les pins (Pinus spp.), les Prunus spp., le sésame (Sesamum indicum), le sorgho (Sorghum bicolor) et le maïs (Zea mays)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Macrophomina phaseolina parasite plusieurs centaines d'espèces de plantes hôtes. Parmi les principales plantes cultivées concernées figurent l'arachide (Arachis hypogaea), le soja (Glycine Max), la luzerne (Medicago sativa), le pois chiche (Cicer arietinum), les haricots (Phaseolus spp.), le niébé (Vigna unguiculata), la betterave (Beta vulgaris), le chou (Brassica oleracea), le piment (Capsicum annuum), la pomme de terre (Solanum tuberosum), les agrumes (Citrus spp.), le coton (Gossypium sp.), le tournesol (Helianthus annuus), la patate douce (Ipomoea batatas), les pins (Pinus spp.), les Prunus spp., le sésame (Sesamum indicum), le sorgho (Sorghum bicolor) et le maïs (Zea mays).
 </t>
         </is>
       </c>
